--- a/output2/【河洛話注音】金剛般若波羅蜜經006。正信希有分第六.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經006。正信希有分第六.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDA9956-6DEE-4BA5-B86B-DEE483CD9AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE73349-079A-4485-974B-BB406221BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1425,9 +1425,6 @@
     <t>ㄏㄨㄚㆵ˙</t>
   </si>
   <si>
-    <t>ㄗㄧㄥ˫</t>
-  </si>
-  <si>
     <t>huat8</t>
   </si>
   <si>
@@ -1437,22 +1434,10 @@
     <t>ㄙㄧㄚˋ</t>
   </si>
   <si>
-    <t>tsiann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sin3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,14 +1446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1525,14 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1549,10 +1518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄣ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1565,17 +1530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsing3</t>
-  </si>
-  <si>
-    <t>tshenn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1604,10 +1558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>suat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1616,14 +1566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄤ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ku3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1636,10 +1578,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,22 +1602,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tserh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>biat8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1740,10 +1666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1752,26 +1674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsia2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1788,10 +1690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1816,22 +1714,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄞ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1844,10 +1730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sam3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1860,34 +1742,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ji5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sian6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1912,14 +1774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshainn1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆮ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ban7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1952,14 +1806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsi3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liam7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1968,22 +1814,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsing7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kian3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1992,14 +1826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ua5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2036,18 +1862,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>huat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2080,22 +1898,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tio0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2124,10 +1930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lir2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2136,14 +1938,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,15 +1966,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆲ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hong2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆲˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆩ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sing1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziang1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄤ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zerh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ting2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆲ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4266,25 +4268,25 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="89" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="89" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="G4" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="89" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="I4" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="J4" s="89" t="s">
         <v>301</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>303</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="J4" s="89" t="s">
-        <v>307</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -4337,25 +4339,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="G6" s="94" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" s="94" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="I6" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="J6" s="94" t="s">
         <v>302</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>304</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>306</v>
-      </c>
-      <c r="J6" s="94" t="s">
-        <v>308</v>
       </c>
       <c r="K6" s="94"/>
       <c r="L6" s="94"/>
@@ -4393,43 +4395,43 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="H8" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I8" s="89" t="s">
         <v>311</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="89" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="I8" s="89" t="s">
-        <v>319</v>
       </c>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
       <c r="L8" s="89" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P8" s="89" t="s">
-        <v>301</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="R8" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="104"/>
@@ -4493,43 +4495,43 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="H10" s="94" t="s">
+        <v>435</v>
+      </c>
+      <c r="I10" s="94" t="s">
         <v>312</v>
-      </c>
-      <c r="F10" s="94" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="94" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>318</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>320</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M10" s="94" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="N10" s="94"/>
       <c r="O10" s="94" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="104"/>
@@ -4560,41 +4562,41 @@
       <c r="C12" s="52"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="L12" s="89" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="R12" s="89"/>
       <c r="S12" s="53"/>
@@ -4659,41 +4661,41 @@
       <c r="C14" s="52"/>
       <c r="D14" s="94"/>
       <c r="E14" s="94" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="K14" s="94" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="L14" s="94" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="R14" s="94"/>
       <c r="S14" s="58"/>
@@ -4725,40 +4727,40 @@
       <c r="C16" s="52"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H16" s="89" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="89"/>
       <c r="L16" s="89" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M16" s="89" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="N16" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="O16" s="89" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="P16" s="89"/>
       <c r="Q16" s="89" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="R16" s="89" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4822,40 +4824,40 @@
       <c r="C18" s="52"/>
       <c r="D18" s="94"/>
       <c r="E18" s="94" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H18" s="94" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I18" s="94" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
       <c r="L18" s="94" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="M18" s="94" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="N18" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="O18" s="94" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="P18" s="94"/>
       <c r="Q18" s="94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="R18" s="94" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4885,42 +4887,42 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="89" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="89" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89" t="s">
-        <v>301</v>
+        <v>432</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="N20" s="89" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="O20" s="89" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="P20" s="89" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="R20" s="89"/>
       <c r="S20" s="53"/>
@@ -4984,42 +4986,42 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="94" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F22" s="94"/>
       <c r="G22" s="94" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="H22" s="94" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="K22" s="94"/>
       <c r="L22" s="94" t="s">
-        <v>302</v>
+        <v>433</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="O22" s="94" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="P22" s="94" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="R22" s="94"/>
       <c r="S22" s="58"/>
@@ -5050,42 +5052,42 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="E24" s="89" t="s">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="F24" s="89" t="s">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H24" s="89"/>
       <c r="I24" s="89" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="K24" s="89" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L24" s="89" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="M24" s="89"/>
       <c r="N24" s="89" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>378</v>
+        <v>453</v>
       </c>
       <c r="P24" s="89" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="89" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="53"/>
@@ -5149,42 +5151,42 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="94" t="s">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="E26" s="94" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="K26" s="94" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="L26" s="94" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="M26" s="94"/>
       <c r="N26" s="94" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="58"/>
@@ -5223,43 +5225,43 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="89" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="F28" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="89" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="J28" s="89" t="s">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="K28" s="89" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="L28" s="89" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="M28" s="89"/>
       <c r="N28" s="89" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="O28" s="89" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="P28" s="89"/>
       <c r="Q28" s="89" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="R28" s="89" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="86" t="str">
@@ -5330,43 +5332,43 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="94" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="H30" s="94"/>
       <c r="I30" s="94" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="K30" s="94" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="L30" s="94" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="M30" s="94"/>
       <c r="N30" s="94" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="O30" s="94" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="P30" s="94"/>
       <c r="Q30" s="94" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="R30" s="94" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="86" t="str">
@@ -5404,47 +5406,47 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="89" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="F32" s="89" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="J32" s="89"/>
       <c r="K32" s="89" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="M32" s="89" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="N32" s="89" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="P32" s="89" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="Q32" s="89" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="R32" s="89" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="86" t="str">
@@ -5511,47 +5513,47 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="94" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E34" s="94" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="F34" s="94" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="94" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="L34" s="94" t="s">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="N34" s="94" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="O34" s="94" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="P34" s="94" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="Q34" s="94" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="R34" s="94" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5581,45 +5583,45 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="89" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="E36" s="89" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="G36" s="89" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="H36" s="89"/>
       <c r="I36" s="89" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J36" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="M36" s="89"/>
       <c r="N36" s="89" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="O36" s="89" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="P36" s="89" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="Q36" s="89" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="R36" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5682,45 +5684,45 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="94" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="G38" s="94" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="H38" s="94"/>
       <c r="I38" s="94" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="K38" s="94" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="L38" s="94" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="M38" s="94"/>
       <c r="N38" s="94" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="O38" s="94" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="P38" s="94" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="Q38" s="94" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="R38" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5750,42 +5752,42 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="89" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="E40" s="89" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="G40" s="89"/>
       <c r="H40" s="89" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I40" s="89" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J40" s="89" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K40" s="89"/>
       <c r="L40" s="89" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M40" s="89" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="N40" s="89" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="O40" s="89" t="s">
+        <v>455</v>
+      </c>
+      <c r="P40" s="89" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q40" s="89" t="s">
         <v>390</v>
-      </c>
-      <c r="P40" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q40" s="89" t="s">
-        <v>432</v>
       </c>
       <c r="R40" s="89"/>
       <c r="S40" s="53"/>
@@ -5849,42 +5851,42 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="94" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="E42" s="94" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="F42" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="G42" s="94"/>
       <c r="H42" s="94" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J42" s="94" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K42" s="94"/>
       <c r="L42" s="94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M42" s="94" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="N42" s="94" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="O42" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="P42" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q42" s="94" t="s">
         <v>391</v>
-      </c>
-      <c r="P42" s="94" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q42" s="94" t="s">
-        <v>433</v>
       </c>
       <c r="R42" s="94"/>
       <c r="S42" s="58"/>
@@ -5915,47 +5917,47 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="J44" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="L44" s="89" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="M44" s="89" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="N44" s="89" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="O44" s="89"/>
       <c r="P44" s="89" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="Q44" s="89" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="R44" s="89" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -6018,47 +6020,47 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="F46" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="G46" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="K46" s="94" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="L46" s="94" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="M46" s="94" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="N46" s="94" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="O46" s="94"/>
       <c r="P46" s="94" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="Q46" s="94" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="R46" s="94" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -6089,40 +6091,40 @@
       <c r="C48" s="52"/>
       <c r="D48" s="89"/>
       <c r="E48" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="I48" s="89"/>
       <c r="J48" s="89" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="L48" s="89" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="M48" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="N48" s="89"/>
       <c r="O48" s="89" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="P48" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="89"/>
       <c r="R48" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -6186,40 +6188,40 @@
       <c r="C50" s="52"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="H50" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="I50" s="94"/>
       <c r="J50" s="94" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="K50" s="94" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="L50" s="94" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="M50" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="N50" s="94"/>
       <c r="O50" s="94" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="Q50" s="94"/>
       <c r="R50" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -6249,43 +6251,43 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="E52" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="F52" s="89"/>
       <c r="G52" s="89" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="I52" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="J52" s="89"/>
       <c r="K52" s="89" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="L52" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="M52" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="N52" s="89"/>
       <c r="O52" s="89" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="P52" s="89" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="Q52" s="89" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="R52" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -6348,43 +6350,43 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="F54" s="94"/>
       <c r="G54" s="94" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="J54" s="94"/>
       <c r="K54" s="94" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="L54" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="M54" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="N54" s="94"/>
       <c r="O54" s="94" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="P54" s="94" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="Q54" s="94" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="R54" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6414,42 +6416,42 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="89" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="G56" s="89" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="H56" s="89" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="I56" s="89"/>
       <c r="J56" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K56" s="89" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="L56" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="M56" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="N56" s="89" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="O56" s="89" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="P56" s="89" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="Q56" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="R56" s="89"/>
       <c r="S56" s="53"/>
@@ -6513,42 +6515,42 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="E58" s="94"/>
       <c r="F58" s="94" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="G58" s="94" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="H58" s="94" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="I58" s="94"/>
       <c r="J58" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="K58" s="94" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="L58" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="M58" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="N58" s="94" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="O58" s="94" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="P58" s="94" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="Q58" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="R58" s="94"/>
       <c r="S58" s="58"/>
@@ -6579,41 +6581,41 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="89" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="F60" s="89" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="G60" s="89" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="H60" s="89"/>
       <c r="I60" s="89" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="J60" s="89"/>
       <c r="K60" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="L60" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="M60" s="89"/>
       <c r="N60" s="89" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="O60" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="P60" s="89"/>
       <c r="Q60" s="89" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="R60" s="89" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6676,41 +6678,41 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="94" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="E62" s="94" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="F62" s="94" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="G62" s="94" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="H62" s="94"/>
       <c r="I62" s="94" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="L62" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="M62" s="94"/>
       <c r="N62" s="94" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="O62" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="P62" s="94"/>
       <c r="Q62" s="94" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="R62" s="94" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6740,38 +6742,38 @@
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
       <c r="D64" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="E64" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="H64" s="89" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="I64" s="89" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="J64" s="89"/>
       <c r="K64" s="89" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="L64" s="89"/>
       <c r="M64" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="N64" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="O64" s="89"/>
       <c r="P64" s="89" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="Q64" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="R64" s="89"/>
       <c r="S64" s="53"/>
@@ -6835,38 +6837,38 @@
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="E66" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="F66" s="94"/>
       <c r="G66" s="94" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="H66" s="94" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="I66" s="94" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="J66" s="94"/>
       <c r="K66" s="94" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="L66" s="94"/>
       <c r="M66" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="N66" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="O66" s="94"/>
       <c r="P66" s="94" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="Q66" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="R66" s="94"/>
       <c r="S66" s="58"/>
@@ -6897,43 +6899,43 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="89" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="E68" s="89" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="F68" s="89" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="G68" s="89"/>
       <c r="H68" s="89" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="I68" s="89" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="J68" s="89" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="K68" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="L68" s="89" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="M68" s="89"/>
       <c r="N68" s="89" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="O68" s="89" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="P68" s="89" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="Q68" s="89"/>
       <c r="R68" s="89" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -6996,43 +6998,43 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="94" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="E70" s="94" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="F70" s="94" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="G70" s="94"/>
       <c r="H70" s="94" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="I70" s="94" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="J70" s="94" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="K70" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="L70" s="94" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="M70" s="94"/>
       <c r="N70" s="94" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="O70" s="94" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="P70" s="94" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="Q70" s="94"/>
       <c r="R70" s="94" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -7063,40 +7065,40 @@
       <c r="C72" s="52"/>
       <c r="D72" s="89"/>
       <c r="E72" s="89" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="F72" s="89" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="G72" s="89"/>
       <c r="H72" s="89" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="I72" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="J72" s="89"/>
       <c r="K72" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L72" s="89" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="M72" s="89" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="N72" s="89" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="O72" s="89" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="P72" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="Q72" s="89"/>
       <c r="R72" s="89" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -7160,40 +7162,40 @@
       <c r="C74" s="52"/>
       <c r="D74" s="94"/>
       <c r="E74" s="94" t="s">
-        <v>291</v>
+        <v>438</v>
       </c>
       <c r="F74" s="94" t="s">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="G74" s="94"/>
       <c r="H74" s="94" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="I74" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="J74" s="94"/>
       <c r="K74" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="L74" s="94" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="M74" s="94" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="N74" s="94" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="O74" s="94" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="P74" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="Q74" s="94"/>
       <c r="R74" s="94" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -7223,42 +7225,42 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="89" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="E76" s="89" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="F76" s="89" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="G76" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="H76" s="89"/>
       <c r="I76" s="89" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J76" s="89" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K76" s="89" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="L76" s="89" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="M76" s="89"/>
       <c r="N76" s="89" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="O76" s="89" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="P76" s="89" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="Q76" s="89" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="R76" s="89"/>
       <c r="S76" s="53"/>
@@ -7322,42 +7324,42 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="94" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="E78" s="94" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="F78" s="94" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="G78" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="H78" s="94"/>
       <c r="I78" s="94" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="J78" s="94" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="K78" s="94" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="L78" s="94" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="M78" s="94"/>
       <c r="N78" s="94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O78" s="94" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="P78" s="94" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="Q78" s="94" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="R78" s="94"/>
       <c r="S78" s="58"/>
@@ -7388,42 +7390,42 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="89" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="E80" s="89" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F80" s="89" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="G80" s="89" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="H80" s="89"/>
       <c r="I80" s="89" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="J80" s="89" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="K80" s="89" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L80" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="M80" s="89"/>
       <c r="N80" s="89" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="O80" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P80" s="89" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="Q80" s="89" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="R80" s="89"/>
       <c r="S80" s="53"/>
@@ -7487,42 +7489,42 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="94" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="E82" s="94" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F82" s="94" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="G82" s="94" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="H82" s="94"/>
       <c r="I82" s="94" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="J82" s="94" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="K82" s="94" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="L82" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="M82" s="94"/>
       <c r="N82" s="94" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O82" s="94" t="s">
         <v>290</v>
       </c>
       <c r="P82" s="94" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="Q82" s="94" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="R82" s="94"/>
       <c r="S82" s="58"/>
@@ -7554,29 +7556,29 @@
       <c r="B84" s="65"/>
       <c r="C84" s="52"/>
       <c r="D84" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="E84" s="89" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="F84" s="89" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="G84" s="89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H84" s="89"/>
       <c r="I84" s="89" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="J84" s="89" t="s">
-        <v>480</v>
+        <v>427</v>
       </c>
       <c r="K84" s="89" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="L84" s="89" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="M84" s="89"/>
       <c r="N84" s="89"/>
@@ -7637,29 +7639,29 @@
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="E86" s="94" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F86" s="94" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="G86" s="94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H86" s="94"/>
       <c r="I86" s="94" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="J86" s="94" t="s">
-        <v>481</v>
+        <v>428</v>
       </c>
       <c r="K86" s="94" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="L86" s="94" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="M86" s="94"/>
       <c r="N86" s="94"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經006。正信希有分第六.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經006。正信希有分第六.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE73349-079A-4485-974B-BB406221BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034B6BE-0654-4D98-978C-41F654BCA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="482">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,18 +1204,9 @@
     <t>希</t>
   </si>
   <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
     <t>言</t>
   </si>
   <si>
-    <t>頗</t>
-  </si>
-  <si>
     <t>眾</t>
   </si>
   <si>
@@ -1234,12 +1225,6 @@
     <t>莫</t>
   </si>
   <si>
-    <t>作</t>
-  </si>
-  <si>
-    <t>滅</t>
-  </si>
-  <si>
     <t>後</t>
   </si>
   <si>
@@ -1249,9 +1234,6 @@
     <t>歲</t>
   </si>
   <si>
-    <t>持</t>
-  </si>
-  <si>
     <t>戒</t>
   </si>
   <si>
@@ -1388,9 +1370,6 @@
   </si>
   <si>
     <t>丘</t>
-  </si>
-  <si>
-    <t>筏</t>
   </si>
   <si>
     <t>喻</t>
@@ -1442,42 +1421,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lak8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄚㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phoo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1494,14 +1449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>piat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1514,14 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pho2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1570,30 +1509,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sit8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆬ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boh8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,10 +1525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄗ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>biat8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1614,54 +1533,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hio6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goo6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sue3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ti5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kai3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1674,10 +1553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄘˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ling5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1706,18 +1581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tng1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆭ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1734,54 +1597,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ji5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sian6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bo5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ban7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1790,14 +1617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nai2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1810,38 +1629,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧㆰ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kian3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>koo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1886,58 +1681,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄋㄚˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tio0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gi7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆣㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siang5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1946,22 +1705,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>khu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄎㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ju7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siong7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,18 +1721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ziann3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆩ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2018,10 +1753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄥ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄒㄧˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2030,18 +1761,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㄤ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄒㄧㆵ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zerh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lai5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2050,10 +1773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zia2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2070,18 +1789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jin5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2090,46 +1797,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆢㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆢㄧˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄑㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zi3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zing7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2138,10 +1817,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2154,10 +1829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2183,6 +1854,342 @@
   </si>
   <si>
     <t>ㄒㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄤˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄞ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆰ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khiu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆻ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4057,7 +4064,7 @@
   </sheetPr>
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4082,7 +4089,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -4112,10 +4119,10 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="96" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -4157,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4262,31 +4269,31 @@
       <c r="S3" s="74"/>
       <c r="T3" s="71"/>
       <c r="V3" s="103" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="89" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>301</v>
+        <v>467</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -4303,7 +4310,7 @@
       <c r="B5" s="66">
         <v>1</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="102" t="s">
         <v>216</v>
       </c>
       <c r="E5" s="95" t="s">
@@ -4321,8 +4328,8 @@
       <c r="I5" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="J5" s="95" t="s">
-        <v>219</v>
+      <c r="J5" s="102" t="s">
+        <v>457</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
@@ -4339,25 +4346,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="94" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="E6" s="94" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="F6" s="94" t="s">
-        <v>296</v>
+        <v>399</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>302</v>
+        <v>468</v>
       </c>
       <c r="K6" s="94"/>
       <c r="L6" s="94"/>
@@ -4395,43 +4402,43 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="89" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F8" s="89" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>309</v>
+        <v>469</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
       <c r="L8" s="89" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="P8" s="89" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="R8" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="104"/>
@@ -4451,14 +4458,14 @@
       <c r="F9" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="95" t="s">
-        <v>220</v>
+      <c r="G9" s="102" t="s">
+        <v>458</v>
       </c>
       <c r="H9" s="95" t="s">
         <v>212</v>
       </c>
       <c r="I9" s="95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J9" s="95" t="s">
         <v>173</v>
@@ -4476,16 +4483,16 @@
         <v>191</v>
       </c>
       <c r="O9" s="102" t="s">
-        <v>222</v>
+        <v>459</v>
       </c>
       <c r="P9" s="95" t="s">
         <v>214</v>
       </c>
       <c r="Q9" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="R9" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="71"/>
@@ -4495,43 +4502,43 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="94" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="E10" s="94" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F10" s="94" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="H10" s="94" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="M10" s="94" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="N10" s="94"/>
       <c r="O10" s="94" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="104"/>
@@ -4552,7 +4559,9 @@
       <c r="N11" s="82"/>
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
+      <c r="Q11" s="82" t="s">
+        <v>455</v>
+      </c>
       <c r="R11" s="82"/>
       <c r="S11" s="57"/>
       <c r="V11" s="104"/>
@@ -4562,41 +4571,41 @@
       <c r="C12" s="52"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F12" s="89" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G12" s="89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>442</v>
+        <v>373</v>
       </c>
       <c r="L12" s="89" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="O12" s="89" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="P12" s="89" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
       <c r="R12" s="89"/>
       <c r="S12" s="53"/>
@@ -4615,7 +4624,7 @@
         <v>208</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G13" s="95" t="s">
         <v>171</v>
@@ -4624,22 +4633,22 @@
         <v>172</v>
       </c>
       <c r="I13" s="95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J13" s="95" t="s">
         <v>209</v>
       </c>
       <c r="K13" s="95" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L13" s="95" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M13" s="95" t="s">
         <v>167</v>
       </c>
       <c r="N13" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O13" s="95" t="s">
         <v>204</v>
@@ -4661,41 +4670,41 @@
       <c r="C14" s="52"/>
       <c r="D14" s="94"/>
       <c r="E14" s="94" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="G14" s="94" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="K14" s="94" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="L14" s="94" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>331</v>
+        <v>471</v>
       </c>
       <c r="R14" s="94"/>
       <c r="S14" s="58"/>
@@ -4727,40 +4736,40 @@
       <c r="C16" s="52"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="F16" s="89" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="G16" s="89" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H16" s="89" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="I16" s="89" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J16" s="89"/>
       <c r="K16" s="89"/>
       <c r="L16" s="89" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M16" s="89" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="N16" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="O16" s="89" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="P16" s="89"/>
       <c r="Q16" s="89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="R16" s="89" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4796,10 +4805,10 @@
         <v>190</v>
       </c>
       <c r="L17" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="M17" s="95" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="M17" s="102" t="s">
+        <v>460</v>
       </c>
       <c r="N17" s="95" t="s">
         <v>172</v>
@@ -4824,40 +4833,40 @@
       <c r="C18" s="52"/>
       <c r="D18" s="94"/>
       <c r="E18" s="94" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="H18" s="94" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I18" s="94" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
       <c r="L18" s="94" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="M18" s="94" t="s">
-        <v>336</v>
+        <v>473</v>
       </c>
       <c r="N18" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="O18" s="94" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="P18" s="94"/>
       <c r="Q18" s="94" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="R18" s="94" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4887,42 +4896,42 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="89" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="89" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>347</v>
+        <v>476</v>
       </c>
       <c r="N20" s="89" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="O20" s="89" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="P20" s="89" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="R20" s="89"/>
       <c r="S20" s="53"/>
@@ -4934,26 +4943,26 @@
         <v>5</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>231</v>
+      <c r="D21" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>462</v>
       </c>
       <c r="F21" s="95" t="s">
         <v>167</v>
       </c>
       <c r="G21" s="95" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H21" s="95" t="s">
         <v>206</v>
       </c>
       <c r="I21" s="95" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J21" s="95" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K21" s="95" t="s">
         <v>167</v>
@@ -4961,20 +4970,20 @@
       <c r="L21" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="M21" s="95" t="s">
-        <v>234</v>
+      <c r="M21" s="102" t="s">
+        <v>463</v>
       </c>
       <c r="N21" s="95" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P21" s="95" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R21" s="95" t="s">
         <v>167</v>
@@ -4986,42 +4995,42 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="94" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="F22" s="94"/>
       <c r="G22" s="94" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="H22" s="94" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>344</v>
+        <v>414</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="K22" s="94"/>
       <c r="L22" s="94" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>348</v>
+        <v>477</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="O22" s="94" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="P22" s="94" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="R22" s="94"/>
       <c r="S22" s="58"/>
@@ -5052,42 +5061,42 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
       <c r="E24" s="89" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="F24" s="89" t="s">
-        <v>442</v>
+        <v>373</v>
       </c>
       <c r="G24" s="89" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="H24" s="89"/>
       <c r="I24" s="89" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="K24" s="89" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L24" s="89" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="M24" s="89"/>
       <c r="N24" s="89" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="P24" s="89" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="Q24" s="89" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="53"/>
@@ -5102,29 +5111,29 @@
       <c r="D25" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="95" t="s">
-        <v>239</v>
+      <c r="E25" s="102" t="s">
+        <v>464</v>
       </c>
       <c r="F25" s="95" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G25" s="95" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H25" s="95" t="s">
         <v>167</v>
       </c>
       <c r="I25" s="95" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J25" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K25" s="95" t="s">
         <v>217</v>
       </c>
       <c r="L25" s="95" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M25" s="95" t="s">
         <v>167</v>
@@ -5133,10 +5142,10 @@
         <v>197</v>
       </c>
       <c r="O25" s="95" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P25" s="95" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="95" t="s">
         <v>204</v>
@@ -5151,42 +5160,42 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="94" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="E26" s="94" t="s">
         <v>354</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="K26" s="94" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="L26" s="94" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="M26" s="94"/>
       <c r="N26" s="94" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="O26" s="94" t="s">
         <v>354</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="58"/>
@@ -5225,43 +5234,43 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="89" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F28" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="89" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="J28" s="89" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
       <c r="K28" s="89" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="L28" s="89" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="M28" s="89"/>
       <c r="N28" s="89" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="O28" s="89" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="P28" s="89"/>
       <c r="Q28" s="89" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="R28" s="89" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="86" t="str">
@@ -5277,16 +5286,16 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+      <c r="E29" s="102" t="s">
+        <v>456</v>
       </c>
       <c r="F29" s="95" t="s">
         <v>172</v>
       </c>
       <c r="G29" s="95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H29" s="95" t="s">
         <v>167</v>
@@ -5298,28 +5307,28 @@
         <v>200</v>
       </c>
       <c r="K29" s="95" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L29" s="95" t="s">
         <v>212</v>
       </c>
       <c r="M29" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N29" s="95" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O29" s="95" t="s">
         <v>212</v>
       </c>
       <c r="P29" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="95" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="R29" s="95" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="S29" s="54"/>
       <c r="U29" s="86" t="str">
@@ -5332,43 +5341,43 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="94" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="H30" s="94"/>
       <c r="I30" s="94" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="K30" s="94" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="L30" s="94" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="M30" s="94"/>
       <c r="N30" s="94" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="O30" s="94" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="P30" s="94"/>
       <c r="Q30" s="94" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="R30" s="94" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="86" t="str">
@@ -5406,47 +5415,47 @@
       <c r="B32" s="65"/>
       <c r="C32" s="52"/>
       <c r="D32" s="89" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="F32" s="89" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="I32" s="89" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="J32" s="89"/>
       <c r="K32" s="89" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
       <c r="M32" s="89" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="N32" s="89" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="O32" s="89" t="s">
-        <v>464</v>
+        <v>384</v>
       </c>
       <c r="P32" s="89" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="Q32" s="89" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="R32" s="89" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="S32" s="53"/>
       <c r="U32" s="86" t="str">
@@ -5468,37 +5477,37 @@
         <v>212</v>
       </c>
       <c r="F33" s="95" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G33" s="95" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H33" s="95" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I33" s="95" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J33" s="95" t="s">
         <v>167</v>
       </c>
       <c r="K33" s="95" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L33" s="95" t="s">
         <v>200</v>
       </c>
       <c r="M33" s="95" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N33" s="95" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O33" s="95" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P33" s="95" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q33" s="95" t="s">
         <v>212</v>
@@ -5513,47 +5522,47 @@
       <c r="B34" s="67"/>
       <c r="C34" s="52"/>
       <c r="D34" s="94" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E34" s="94" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="F34" s="94" t="s">
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>462</v>
+        <v>387</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="94" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="L34" s="94" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="N34" s="94" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="O34" s="94" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="P34" s="94" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="Q34" s="94" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="R34" s="94" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="S34" s="58"/>
       <c r="V34" s="69"/>
@@ -5583,45 +5592,45 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="89" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="E36" s="89" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="G36" s="89" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="H36" s="89"/>
       <c r="I36" s="89" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="J36" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>442</v>
+        <v>373</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M36" s="89"/>
       <c r="N36" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="O36" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="O36" s="89" t="s">
-        <v>466</v>
-      </c>
       <c r="P36" s="89" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="Q36" s="89" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="R36" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5633,49 +5642,49 @@
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="95" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E37" s="95" t="s">
         <v>215</v>
       </c>
       <c r="F37" s="95" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G37" s="95" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H37" s="95" t="s">
         <v>174</v>
       </c>
       <c r="I37" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J37" s="95" t="s">
         <v>172</v>
       </c>
       <c r="K37" s="95" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L37" s="95" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M37" s="95" t="s">
         <v>167</v>
       </c>
       <c r="N37" s="95" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O37" s="95" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P37" s="95" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="95" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R37" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S37" s="54"/>
       <c r="V37" s="69"/>
@@ -5684,45 +5693,45 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="94" t="s">
-        <v>462</v>
+        <v>387</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="G38" s="94" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="H38" s="94"/>
       <c r="I38" s="94" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="K38" s="94" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="L38" s="94" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="M38" s="94"/>
       <c r="N38" s="94" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="O38" s="94" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="P38" s="94" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="Q38" s="94" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="R38" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5752,42 +5761,42 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="89" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="E40" s="89" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="G40" s="89"/>
       <c r="H40" s="89" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I40" s="89" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="J40" s="89" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="K40" s="89"/>
       <c r="L40" s="89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M40" s="89" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="N40" s="89" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="O40" s="89" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="P40" s="89" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="Q40" s="89" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="R40" s="89"/>
       <c r="S40" s="53"/>
@@ -5800,16 +5809,16 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="95" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E41" s="95" t="s">
         <v>217</v>
       </c>
       <c r="F41" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G41" s="95" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H41" s="95" t="s">
         <v>187</v>
@@ -5830,13 +5839,13 @@
         <v>207</v>
       </c>
       <c r="N41" s="102" t="s">
-        <v>265</v>
-      </c>
-      <c r="O41" s="95" t="s">
-        <v>244</v>
+        <v>465</v>
+      </c>
+      <c r="O41" s="102" t="s">
+        <v>238</v>
       </c>
       <c r="P41" s="95" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="95" t="s">
         <v>205</v>
@@ -5851,42 +5860,42 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="94" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
       <c r="E42" s="94" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="F42" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="G42" s="94"/>
       <c r="H42" s="94" t="s">
-        <v>304</v>
+        <v>402</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="J42" s="94" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="K42" s="94"/>
       <c r="L42" s="94" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="M42" s="94" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="N42" s="94" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="O42" s="94" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="P42" s="94" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="Q42" s="94" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="R42" s="94"/>
       <c r="S42" s="58"/>
@@ -5917,47 +5926,47 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="I44" s="89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="J44" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="K44" s="89" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="L44" s="89" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="M44" s="89" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N44" s="89" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="O44" s="89"/>
       <c r="P44" s="89" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="Q44" s="89" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="R44" s="89" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="S44" s="53"/>
       <c r="V44" s="69"/>
@@ -5975,10 +5984,10 @@
         <v>215</v>
       </c>
       <c r="F45" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G45" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H45" s="95" t="s">
         <v>208</v>
@@ -5990,16 +5999,16 @@
         <v>172</v>
       </c>
       <c r="K45" s="95" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L45" s="95" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M45" s="95" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N45" s="95" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="O45" s="95" t="s">
         <v>174</v>
@@ -6020,47 +6029,47 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="F46" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="G46" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="H46" s="94" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="K46" s="94" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="L46" s="94" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="M46" s="94" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="N46" s="94" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="O46" s="94"/>
       <c r="P46" s="94" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="Q46" s="94" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="R46" s="94" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -6091,40 +6100,40 @@
       <c r="C48" s="52"/>
       <c r="D48" s="89"/>
       <c r="E48" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="I48" s="89"/>
       <c r="J48" s="89" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="K48" s="89" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="L48" s="89" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="M48" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="N48" s="89"/>
       <c r="O48" s="89" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="P48" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="Q48" s="89"/>
       <c r="R48" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -6145,40 +6154,40 @@
         <v>215</v>
       </c>
       <c r="G49" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H49" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I49" s="95" t="s">
         <v>167</v>
       </c>
       <c r="J49" s="95" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K49" s="95" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L49" s="95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M49" s="95" t="s">
         <v>199</v>
       </c>
       <c r="N49" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O49" s="95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P49" s="95" t="s">
         <v>199</v>
       </c>
       <c r="Q49" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R49" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S49" s="54"/>
       <c r="V49" s="69"/>
@@ -6188,40 +6197,40 @@
       <c r="C50" s="52"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="H50" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="I50" s="94"/>
       <c r="J50" s="94" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="K50" s="94" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="M50" s="94" t="s">
         <v>397</v>
-      </c>
-      <c r="L50" s="94" t="s">
-        <v>399</v>
-      </c>
-      <c r="M50" s="94" t="s">
-        <v>473</v>
       </c>
       <c r="N50" s="94"/>
       <c r="O50" s="94" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="Q50" s="94"/>
       <c r="R50" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -6251,43 +6260,43 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="E52" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="F52" s="89"/>
       <c r="G52" s="89" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="I52" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="J52" s="89"/>
       <c r="K52" s="89" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="L52" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="M52" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="N52" s="89"/>
       <c r="O52" s="89" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="P52" s="89" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="Q52" s="89" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="R52" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="S52" s="53"/>
       <c r="V52" s="69"/>
@@ -6299,31 +6308,31 @@
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E53" s="95" t="s">
         <v>199</v>
       </c>
       <c r="F53" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G53" s="95" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H53" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I53" s="95" t="s">
         <v>199</v>
       </c>
       <c r="J53" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K53" s="95" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L53" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M53" s="95" t="s">
         <v>199</v>
@@ -6332,16 +6341,16 @@
         <v>167</v>
       </c>
       <c r="O53" s="95" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P53" s="95" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q53" s="95" t="s">
         <v>211</v>
       </c>
       <c r="R53" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="S53" s="54"/>
       <c r="V53" s="69"/>
@@ -6350,43 +6359,43 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="F54" s="94"/>
       <c r="G54" s="94" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="J54" s="94"/>
       <c r="K54" s="94" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="L54" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="M54" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="N54" s="94"/>
       <c r="O54" s="94" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="P54" s="94" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="Q54" s="94" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="R54" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="S54" s="58"/>
       <c r="V54" s="69"/>
@@ -6416,42 +6425,42 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="89" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="G56" s="89" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="H56" s="89" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="I56" s="89"/>
       <c r="J56" s="89" t="s">
+        <v>307</v>
+      </c>
+      <c r="K56" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="L56" s="89" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" s="89" t="s">
+        <v>371</v>
+      </c>
+      <c r="N56" s="89" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" s="89" t="s">
         <v>324</v>
       </c>
-      <c r="K56" s="89" t="s">
-        <v>383</v>
-      </c>
-      <c r="L56" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="M56" s="89" t="s">
-        <v>439</v>
-      </c>
-      <c r="N56" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="O56" s="89" t="s">
-        <v>357</v>
-      </c>
       <c r="P56" s="89" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="R56" s="89"/>
       <c r="S56" s="53"/>
@@ -6488,19 +6497,19 @@
         <v>215</v>
       </c>
       <c r="L57" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M57" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N57" s="95" t="s">
         <v>168</v>
       </c>
       <c r="O57" s="95" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P57" s="95" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q57" s="95" t="s">
         <v>199</v>
@@ -6515,42 +6524,42 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="E58" s="94"/>
       <c r="F58" s="94" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G58" s="94" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="H58" s="94" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="I58" s="94"/>
       <c r="J58" s="94" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="K58" s="94" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="L58" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="M58" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="N58" s="94" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="O58" s="94" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="P58" s="94" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="Q58" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="R58" s="94"/>
       <c r="S58" s="58"/>
@@ -6581,41 +6590,41 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="89" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="E60" s="89" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="F60" s="89" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="G60" s="89" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="H60" s="89"/>
       <c r="I60" s="89" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="J60" s="89"/>
       <c r="K60" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="L60" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="M60" s="89"/>
       <c r="N60" s="89" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="O60" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="P60" s="89"/>
       <c r="Q60" s="89" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="R60" s="89" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6630,37 +6639,37 @@
         <v>210</v>
       </c>
       <c r="E61" s="95" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F61" s="95" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G61" s="95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H61" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I61" s="95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J61" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K61" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L61" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M61" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N61" s="95" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O61" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P61" s="95" t="s">
         <v>174</v>
@@ -6669,7 +6678,7 @@
         <v>168</v>
       </c>
       <c r="R61" s="95" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="S61" s="54"/>
       <c r="V61" s="69"/>
@@ -6678,41 +6687,41 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="94" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="E62" s="94" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="F62" s="94" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="G62" s="94" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="H62" s="94"/>
       <c r="I62" s="94" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="L62" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="M62" s="94"/>
       <c r="N62" s="94" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="O62" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="P62" s="94"/>
       <c r="Q62" s="94" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="R62" s="94" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6742,38 +6751,38 @@
       <c r="B64" s="65"/>
       <c r="C64" s="52"/>
       <c r="D64" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="E64" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="H64" s="89" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="I64" s="89" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="J64" s="89"/>
       <c r="K64" s="89" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="L64" s="89"/>
       <c r="M64" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="N64" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="O64" s="89"/>
       <c r="P64" s="89" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="Q64" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="R64" s="89"/>
       <c r="S64" s="53"/>
@@ -6786,7 +6795,7 @@
       </c>
       <c r="C65" s="52"/>
       <c r="D65" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E65" s="95" t="s">
         <v>199</v>
@@ -6798,34 +6807,34 @@
         <v>210</v>
       </c>
       <c r="H65" s="95" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I65" s="95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J65" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K65" s="95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L65" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M65" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N65" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O65" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P65" s="95" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q65" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R65" s="95" t="s">
         <v>174</v>
@@ -6837,38 +6846,38 @@
       <c r="B66" s="67"/>
       <c r="C66" s="52"/>
       <c r="D66" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="E66" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="F66" s="94"/>
       <c r="G66" s="94" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="H66" s="94" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="I66" s="94" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="J66" s="94"/>
       <c r="K66" s="94" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="L66" s="94"/>
       <c r="M66" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="N66" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="O66" s="94"/>
       <c r="P66" s="94" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="Q66" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="R66" s="94"/>
       <c r="S66" s="58"/>
@@ -6899,43 +6908,43 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="89" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="E68" s="89" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="F68" s="89" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="G68" s="89"/>
       <c r="H68" s="89" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="I68" s="89" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="J68" s="89" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="K68" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="L68" s="89" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="M68" s="89"/>
       <c r="N68" s="89" t="s">
-        <v>476</v>
+        <v>392</v>
       </c>
       <c r="O68" s="89" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="P68" s="89" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="Q68" s="89"/>
       <c r="R68" s="89" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -6962,13 +6971,13 @@
         <v>168</v>
       </c>
       <c r="I69" s="95" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J69" s="95" t="s">
         <v>211</v>
       </c>
       <c r="K69" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L69" s="95" t="s">
         <v>199</v>
@@ -6980,16 +6989,16 @@
         <v>210</v>
       </c>
       <c r="O69" s="95" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P69" s="95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q69" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="R69" s="95" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="S69" s="54"/>
       <c r="V69" s="69"/>
@@ -6998,43 +7007,43 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="94" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="E70" s="94" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="F70" s="94" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G70" s="94"/>
       <c r="H70" s="94" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="I70" s="94" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="J70" s="94" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="K70" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="L70" s="94" t="s">
-        <v>473</v>
+        <v>397</v>
       </c>
       <c r="M70" s="94"/>
       <c r="N70" s="94" t="s">
-        <v>477</v>
+        <v>393</v>
       </c>
       <c r="O70" s="94" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="P70" s="94" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="Q70" s="94"/>
       <c r="R70" s="94" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -7065,40 +7074,40 @@
       <c r="C72" s="52"/>
       <c r="D72" s="89"/>
       <c r="E72" s="89" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="F72" s="89" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="G72" s="89"/>
       <c r="H72" s="89" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="I72" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="J72" s="89"/>
       <c r="K72" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="L72" s="89" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="M72" s="89" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N72" s="89" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="O72" s="89" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="P72" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="Q72" s="89"/>
       <c r="R72" s="89" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -7110,22 +7119,22 @@
       </c>
       <c r="C73" s="52"/>
       <c r="D73" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E73" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F73" s="95" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G73" s="95" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H73" s="95" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I73" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J73" s="95" t="s">
         <v>174</v>
@@ -7140,13 +7149,13 @@
         <v>201</v>
       </c>
       <c r="N73" s="95" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O73" s="95" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P73" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q73" s="95" t="s">
         <v>167</v>
@@ -7162,40 +7171,40 @@
       <c r="C74" s="52"/>
       <c r="D74" s="94"/>
       <c r="E74" s="94" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="F74" s="94" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="G74" s="94"/>
       <c r="H74" s="94" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="I74" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="J74" s="94"/>
       <c r="K74" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="L74" s="94" t="s">
         <v>441</v>
       </c>
-      <c r="L74" s="94" t="s">
-        <v>395</v>
-      </c>
       <c r="M74" s="94" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="N74" s="94" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="O74" s="94" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="P74" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="Q74" s="94"/>
       <c r="R74" s="94" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -7225,42 +7234,42 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="89" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="E76" s="89" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="F76" s="89" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G76" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="H76" s="89"/>
       <c r="I76" s="89" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="J76" s="89" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="K76" s="89" t="s">
-        <v>415</v>
+        <v>356</v>
       </c>
       <c r="L76" s="89" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="M76" s="89"/>
       <c r="N76" s="89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O76" s="89" t="s">
-        <v>446</v>
+        <v>375</v>
       </c>
       <c r="P76" s="89" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="Q76" s="89" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="R76" s="89"/>
       <c r="S76" s="53"/>
@@ -7273,16 +7282,16 @@
       </c>
       <c r="C77" s="52"/>
       <c r="D77" s="95" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E77" s="95" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F77" s="95" t="s">
         <v>211</v>
       </c>
       <c r="G77" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H77" s="95" t="s">
         <v>174</v>
@@ -7294,7 +7303,7 @@
         <v>172</v>
       </c>
       <c r="K77" s="95" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L77" s="95" t="s">
         <v>198</v>
@@ -7309,7 +7318,7 @@
         <v>207</v>
       </c>
       <c r="P77" s="95" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q77" s="95" t="s">
         <v>209</v>
@@ -7324,42 +7333,42 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="94" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E78" s="94" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="F78" s="94" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="G78" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="H78" s="94"/>
       <c r="I78" s="94" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="J78" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="K78" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="L78" s="94" t="s">
         <v>441</v>
-      </c>
-      <c r="K78" s="94" t="s">
-        <v>416</v>
-      </c>
-      <c r="L78" s="94" t="s">
-        <v>395</v>
       </c>
       <c r="M78" s="94"/>
       <c r="N78" s="94" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="O78" s="94" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="P78" s="94" t="s">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="Q78" s="94" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="R78" s="94"/>
       <c r="S78" s="58"/>
@@ -7390,42 +7399,42 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="89" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="E80" s="89" t="s">
-        <v>479</v>
+        <v>395</v>
       </c>
       <c r="F80" s="89" t="s">
-        <v>420</v>
+        <v>358</v>
       </c>
       <c r="G80" s="89" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="H80" s="89"/>
       <c r="I80" s="89" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="J80" s="89" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="K80" s="89" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="L80" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="M80" s="89"/>
       <c r="N80" s="89" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="O80" s="89" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P80" s="89" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="Q80" s="89" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="R80" s="89"/>
       <c r="S80" s="53"/>
@@ -7438,31 +7447,31 @@
       </c>
       <c r="C81" s="52"/>
       <c r="D81" s="95" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E81" s="95" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F81" s="95" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G81" s="95" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H81" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="I81" s="95" t="s">
-        <v>244</v>
+      <c r="I81" s="102" t="s">
+        <v>456</v>
       </c>
       <c r="J81" s="95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K81" s="95" t="s">
         <v>209</v>
       </c>
       <c r="L81" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M81" s="95" t="s">
         <v>167</v>
@@ -7471,16 +7480,16 @@
         <v>171</v>
       </c>
       <c r="O81" s="102" t="s">
-        <v>281</v>
+        <v>466</v>
       </c>
       <c r="P81" s="95" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q81" s="95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R81" s="95" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="S81" s="54"/>
       <c r="V81" s="69"/>
@@ -7489,42 +7498,42 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="94" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="E82" s="94" t="s">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="F82" s="94" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="G82" s="94" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="H82" s="94"/>
       <c r="I82" s="94" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="J82" s="94" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="K82" s="94" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="L82" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="M82" s="94"/>
       <c r="N82" s="94" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="O82" s="94" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P82" s="94" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="Q82" s="94" t="s">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="R82" s="94"/>
       <c r="S82" s="58"/>
@@ -7556,29 +7565,29 @@
       <c r="B84" s="65"/>
       <c r="C84" s="52"/>
       <c r="D84" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="E84" s="89" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="F84" s="89" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="G84" s="89" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H84" s="89"/>
       <c r="I84" s="89" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="J84" s="89" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="K84" s="89" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="L84" s="89" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="M84" s="89"/>
       <c r="N84" s="89"/>
@@ -7596,16 +7605,16 @@
       </c>
       <c r="C85" s="52"/>
       <c r="D85" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E85" s="95" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F85" s="95" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G85" s="95" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H85" s="95" t="s">
         <v>167</v>
@@ -7614,13 +7623,13 @@
         <v>192</v>
       </c>
       <c r="J85" s="95" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K85" s="95" t="s">
         <v>211</v>
       </c>
       <c r="L85" s="95" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M85" s="95" t="s">
         <v>193</v>
@@ -7639,29 +7648,29 @@
       <c r="B86" s="67"/>
       <c r="C86" s="52"/>
       <c r="D86" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="E86" s="94" t="s">
-        <v>481</v>
+        <v>390</v>
       </c>
       <c r="F86" s="94" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="G86" s="94" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H86" s="94"/>
       <c r="I86" s="94" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="J86" s="94" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="K86" s="94" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="L86" s="94" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="M86" s="94"/>
       <c r="N86" s="94"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經006。正信希有分第六.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經006。正信希有分第六.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D034B6BE-0654-4D98-978C-41F654BCA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6C2F84-36EC-40AF-9179-C61F76BD62D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1669,14 +1669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄚㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hui1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2190,6 +2182,14 @@
   </si>
   <si>
     <t>ㄒㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆻ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4164,9 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4275,7 +4273,7 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E4" s="89" t="s">
         <v>287</v>
@@ -4284,7 +4282,7 @@
         <v>288</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>289</v>
@@ -4293,7 +4291,7 @@
         <v>290</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K4" s="89"/>
       <c r="L4" s="89"/>
@@ -4329,7 +4327,7 @@
         <v>170</v>
       </c>
       <c r="J5" s="102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95"/>
@@ -4346,25 +4344,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="94" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E6" s="94" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="I6" s="94" t="s">
         <v>399</v>
       </c>
-      <c r="G6" s="94" t="s">
-        <v>365</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>401</v>
-      </c>
       <c r="J6" s="94" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K6" s="94"/>
       <c r="L6" s="94"/>
@@ -4411,10 +4409,10 @@
         <v>294</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I8" s="89" t="s">
         <v>296</v>
@@ -4425,20 +4423,20 @@
         <v>298</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89" t="s">
         <v>299</v>
       </c>
       <c r="P8" s="89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R8" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="104"/>
@@ -4459,7 +4457,7 @@
         <v>189</v>
       </c>
       <c r="G9" s="102" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H9" s="95" t="s">
         <v>212</v>
@@ -4483,7 +4481,7 @@
         <v>191</v>
       </c>
       <c r="O9" s="102" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P9" s="95" t="s">
         <v>214</v>
@@ -4502,7 +4500,7 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E10" s="94" t="s">
         <v>293</v>
@@ -4511,10 +4509,10 @@
         <v>295</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H10" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I10" s="94" t="s">
         <v>297</v>
@@ -4522,23 +4520,23 @@
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M10" s="94" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N10" s="94"/>
       <c r="O10" s="94" t="s">
         <v>300</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="104"/>
@@ -4560,7 +4558,7 @@
       <c r="O11" s="82"/>
       <c r="P11" s="82"/>
       <c r="Q11" s="82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R11" s="82"/>
       <c r="S11" s="57"/>
@@ -4589,14 +4587,14 @@
         <v>308</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L12" s="89" t="s">
         <v>310</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O12" s="89" t="s">
         <v>311</v>
@@ -4605,7 +4603,7 @@
         <v>287</v>
       </c>
       <c r="Q12" s="89" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R12" s="89"/>
       <c r="S12" s="53"/>
@@ -4679,7 +4677,7 @@
         <v>306</v>
       </c>
       <c r="H14" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I14" s="94" t="s">
         <v>297</v>
@@ -4688,23 +4686,23 @@
         <v>309</v>
       </c>
       <c r="K14" s="94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L14" s="94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M14" s="94"/>
       <c r="N14" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R14" s="94"/>
       <c r="S14" s="58"/>
@@ -4736,7 +4734,7 @@
       <c r="C16" s="52"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F16" s="89" t="s">
         <v>312</v>
@@ -4756,7 +4754,7 @@
         <v>313</v>
       </c>
       <c r="M16" s="89" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N16" s="89" t="s">
         <v>307</v>
@@ -4769,7 +4767,7 @@
         <v>305</v>
       </c>
       <c r="R16" s="89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="69"/>
@@ -4808,7 +4806,7 @@
         <v>225</v>
       </c>
       <c r="M17" s="102" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N17" s="95" t="s">
         <v>172</v>
@@ -4833,13 +4831,13 @@
       <c r="C18" s="52"/>
       <c r="D18" s="94"/>
       <c r="E18" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F18" s="94" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H18" s="94" t="s">
         <v>293</v>
@@ -4853,10 +4851,10 @@
         <v>314</v>
       </c>
       <c r="M18" s="94" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N18" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O18" s="94" t="s">
         <v>309</v>
@@ -4866,7 +4864,7 @@
         <v>306</v>
       </c>
       <c r="R18" s="94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="69"/>
@@ -4899,27 +4897,27 @@
         <v>315</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F20" s="89"/>
       <c r="G20" s="89" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H20" s="89" t="s">
         <v>345</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J20" s="89" t="s">
         <v>317</v>
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M20" s="89" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N20" s="89" t="s">
         <v>318</v>
@@ -4931,7 +4929,7 @@
         <v>320</v>
       </c>
       <c r="Q20" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R20" s="89"/>
       <c r="S20" s="53"/>
@@ -4944,10 +4942,10 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="102" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F21" s="95" t="s">
         <v>167</v>
@@ -4971,7 +4969,7 @@
         <v>214</v>
       </c>
       <c r="M21" s="102" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N21" s="95" t="s">
         <v>229</v>
@@ -4998,39 +4996,39 @@
         <v>316</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F22" s="94"/>
       <c r="G22" s="94" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H22" s="94" t="s">
         <v>346</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K22" s="94"/>
       <c r="L22" s="94" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O22" s="94" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P22" s="94" t="s">
         <v>321</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R22" s="94"/>
       <c r="S22" s="58"/>
@@ -5061,13 +5059,13 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="89" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E24" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F24" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G24" s="89" t="s">
         <v>310</v>
@@ -5077,7 +5075,7 @@
         <v>322</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K24" s="89" t="s">
         <v>287</v>
@@ -5090,7 +5088,7 @@
         <v>325</v>
       </c>
       <c r="O24" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P24" s="89" t="s">
         <v>327</v>
@@ -5112,7 +5110,7 @@
         <v>200</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F25" s="95" t="s">
         <v>223</v>
@@ -5160,42 +5158,42 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E26" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F26" s="94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G26" s="94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94" t="s">
         <v>323</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K26" s="94" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L26" s="94" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M26" s="94"/>
       <c r="N26" s="94" t="s">
         <v>326</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P26" s="94" t="s">
         <v>328</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R26" s="94"/>
       <c r="S26" s="58"/>
@@ -5234,43 +5232,43 @@
       <c r="B28" s="65"/>
       <c r="C28" s="52"/>
       <c r="D28" s="89" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F28" s="89" t="s">
         <v>307</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J28" s="89" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K28" s="89" t="s">
         <v>329</v>
       </c>
       <c r="L28" s="89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M28" s="89"/>
       <c r="N28" s="89" t="s">
         <v>331</v>
       </c>
       <c r="O28" s="89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P28" s="89"/>
       <c r="Q28" s="89" t="s">
         <v>332</v>
       </c>
       <c r="R28" s="89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S28" s="53"/>
       <c r="U28" s="86" t="str">
@@ -5289,7 +5287,7 @@
         <v>237</v>
       </c>
       <c r="E29" s="102" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F29" s="95" t="s">
         <v>172</v>
@@ -5341,43 +5339,43 @@
       <c r="B30" s="67"/>
       <c r="C30" s="52"/>
       <c r="D30" s="94" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F30" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G30" s="94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H30" s="94"/>
       <c r="I30" s="94" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K30" s="94" t="s">
         <v>330</v>
       </c>
       <c r="L30" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M30" s="94"/>
       <c r="N30" s="94" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O30" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P30" s="94"/>
       <c r="Q30" s="94" t="s">
+        <v>420</v>
+      </c>
+      <c r="R30" s="94" t="s">
         <v>422</v>
-      </c>
-      <c r="R30" s="94" t="s">
-        <v>424</v>
       </c>
       <c r="S30" s="58"/>
       <c r="U30" s="86" t="str">
@@ -5418,16 +5416,16 @@
         <v>345</v>
       </c>
       <c r="E32" s="89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F32" s="89" t="s">
         <v>333</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H32" s="89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I32" s="89" t="s">
         <v>334</v>
@@ -5437,22 +5435,22 @@
         <v>325</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M32" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="N32" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="N32" s="89" t="s">
-        <v>430</v>
-      </c>
       <c r="O32" s="89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P32" s="89" t="s">
         <v>335</v>
       </c>
       <c r="Q32" s="89" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R32" s="89" t="s">
         <v>336</v>
@@ -5525,41 +5523,41 @@
         <v>346</v>
       </c>
       <c r="E34" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F34" s="94" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G34" s="94" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H34" s="94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="94" t="s">
         <v>326</v>
       </c>
       <c r="L34" s="94" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M34" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="N34" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="N34" s="94" t="s">
+      <c r="O34" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="P34" s="94" t="s">
         <v>431</v>
       </c>
-      <c r="O34" s="94" t="s">
-        <v>432</v>
-      </c>
-      <c r="P34" s="94" t="s">
-        <v>433</v>
-      </c>
       <c r="Q34" s="94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="R34" s="94" t="s">
         <v>337</v>
@@ -5592,13 +5590,13 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E36" s="89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G36" s="89" t="s">
         <v>334</v>
@@ -5611,7 +5609,7 @@
         <v>307</v>
       </c>
       <c r="K36" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L36" s="89" t="s">
         <v>310</v>
@@ -5621,7 +5619,7 @@
         <v>338</v>
       </c>
       <c r="O36" s="89" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P36" s="89" t="s">
         <v>329</v>
@@ -5630,7 +5628,7 @@
         <v>340</v>
       </c>
       <c r="R36" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S36" s="53"/>
       <c r="V36" s="69"/>
@@ -5693,45 +5691,45 @@
       <c r="B38" s="67"/>
       <c r="C38" s="52"/>
       <c r="D38" s="94" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F38" s="94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G38" s="94" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H38" s="94"/>
       <c r="I38" s="94" t="s">
         <v>304</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K38" s="94" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L38" s="94" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M38" s="94"/>
       <c r="N38" s="94" t="s">
         <v>339</v>
       </c>
       <c r="O38" s="94" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P38" s="94" t="s">
         <v>330</v>
       </c>
       <c r="Q38" s="94" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="R38" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S38" s="58"/>
       <c r="V38" s="69"/>
@@ -5761,13 +5759,13 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="89" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E40" s="89" t="s">
         <v>287</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G40" s="89"/>
       <c r="H40" s="89" t="s">
@@ -5784,16 +5782,16 @@
         <v>305</v>
       </c>
       <c r="M40" s="89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N40" s="89" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O40" s="89" t="s">
+        <v>476</v>
+      </c>
+      <c r="P40" s="89" t="s">
         <v>478</v>
-      </c>
-      <c r="P40" s="89" t="s">
-        <v>480</v>
       </c>
       <c r="Q40" s="89" t="s">
         <v>341</v>
@@ -5839,7 +5837,7 @@
         <v>207</v>
       </c>
       <c r="N41" s="102" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O41" s="102" t="s">
         <v>238</v>
@@ -5860,17 +5858,17 @@
       <c r="B42" s="67"/>
       <c r="C42" s="52"/>
       <c r="D42" s="94" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E42" s="94" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F42" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G42" s="94"/>
       <c r="H42" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I42" s="94" t="s">
         <v>293</v>
@@ -5883,19 +5881,19 @@
         <v>306</v>
       </c>
       <c r="M42" s="94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N42" s="94" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O42" s="94" t="s">
+        <v>477</v>
+      </c>
+      <c r="P42" s="94" t="s">
         <v>479</v>
       </c>
-      <c r="P42" s="94" t="s">
-        <v>481</v>
-      </c>
       <c r="Q42" s="94" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="R42" s="94"/>
       <c r="S42" s="58"/>
@@ -5929,13 +5927,13 @@
         <v>307</v>
       </c>
       <c r="E44" s="89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G44" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H44" s="89" t="s">
         <v>301</v>
@@ -5947,20 +5945,20 @@
         <v>307</v>
       </c>
       <c r="K44" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="L44" s="89" t="s">
         <v>428</v>
-      </c>
-      <c r="L44" s="89" t="s">
-        <v>430</v>
       </c>
       <c r="M44" s="89" t="s">
         <v>320</v>
       </c>
       <c r="N44" s="89" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O44" s="89"/>
       <c r="P44" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q44" s="89" t="s">
         <v>325</v>
@@ -6029,16 +6027,16 @@
       <c r="B46" s="67"/>
       <c r="C46" s="52"/>
       <c r="D46" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F46" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G46" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H46" s="94" t="s">
         <v>302</v>
@@ -6047,29 +6045,29 @@
         <v>306</v>
       </c>
       <c r="J46" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K46" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="L46" s="94" t="s">
         <v>429</v>
-      </c>
-      <c r="L46" s="94" t="s">
-        <v>431</v>
       </c>
       <c r="M46" s="94" t="s">
         <v>321</v>
       </c>
       <c r="N46" s="94" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O46" s="94"/>
       <c r="P46" s="94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q46" s="94" t="s">
         <v>326</v>
       </c>
       <c r="R46" s="94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S46" s="58"/>
       <c r="V46" s="69"/>
@@ -6103,17 +6101,17 @@
         <v>307</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G48" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H48" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I48" s="89"/>
       <c r="J48" s="89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K48" s="89" t="s">
         <v>343</v>
@@ -6126,14 +6124,14 @@
       </c>
       <c r="N48" s="89"/>
       <c r="O48" s="89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P48" s="89" t="s">
         <v>347</v>
       </c>
       <c r="Q48" s="89"/>
       <c r="R48" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S48" s="53"/>
       <c r="V48" s="69"/>
@@ -6197,20 +6195,20 @@
       <c r="C50" s="52"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F50" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G50" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H50" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I50" s="94"/>
       <c r="J50" s="94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K50" s="94" t="s">
         <v>344</v>
@@ -6219,18 +6217,18 @@
         <v>346</v>
       </c>
       <c r="M50" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N50" s="94"/>
       <c r="O50" s="94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P50" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q50" s="94"/>
       <c r="R50" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S50" s="58"/>
       <c r="V50" s="69"/>
@@ -6260,7 +6258,7 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E52" s="89" t="s">
         <v>347</v>
@@ -6270,14 +6268,14 @@
         <v>348</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I52" s="89" t="s">
         <v>347</v>
       </c>
       <c r="J52" s="89"/>
       <c r="K52" s="89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L52" s="89" t="s">
         <v>349</v>
@@ -6287,13 +6285,13 @@
       </c>
       <c r="N52" s="89"/>
       <c r="O52" s="89" t="s">
+        <v>480</v>
+      </c>
+      <c r="P52" s="89" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q52" s="89" t="s">
         <v>351</v>
-      </c>
-      <c r="P52" s="89" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q52" s="89" t="s">
-        <v>353</v>
       </c>
       <c r="R52" s="89" t="s">
         <v>349</v>
@@ -6359,40 +6357,40 @@
       <c r="B54" s="67"/>
       <c r="C54" s="52"/>
       <c r="D54" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F54" s="94"/>
       <c r="G54" s="94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H54" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I54" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J54" s="94"/>
       <c r="K54" s="94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L54" s="94" t="s">
         <v>350</v>
       </c>
       <c r="M54" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N54" s="94"/>
       <c r="O54" s="94" t="s">
-        <v>352</v>
+        <v>481</v>
       </c>
       <c r="P54" s="94" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q54" s="94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R54" s="94" t="s">
         <v>350</v>
@@ -6429,7 +6427,7 @@
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G56" s="89" t="s">
         <v>325</v>
@@ -6442,22 +6440,22 @@
         <v>307</v>
       </c>
       <c r="K56" s="89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L56" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M56" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N56" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O56" s="89" t="s">
         <v>324</v>
       </c>
       <c r="P56" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q56" s="89" t="s">
         <v>347</v>
@@ -6524,42 +6522,42 @@
       <c r="B58" s="67"/>
       <c r="C58" s="52"/>
       <c r="D58" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E58" s="94"/>
       <c r="F58" s="94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G58" s="94" t="s">
         <v>326</v>
       </c>
       <c r="H58" s="94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I58" s="94"/>
       <c r="J58" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K58" s="94" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L58" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M58" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N58" s="94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O58" s="94" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P58" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q58" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="R58" s="94"/>
       <c r="S58" s="58"/>
@@ -6590,41 +6588,41 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E60" s="89" t="s">
         <v>327</v>
       </c>
       <c r="F60" s="89" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G60" s="89" t="s">
         <v>345</v>
       </c>
       <c r="H60" s="89"/>
       <c r="I60" s="89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J60" s="89"/>
       <c r="K60" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L60" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M60" s="89"/>
       <c r="N60" s="89" t="s">
         <v>348</v>
       </c>
       <c r="O60" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P60" s="89"/>
       <c r="Q60" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R60" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S60" s="53"/>
       <c r="V60" s="69"/>
@@ -6687,41 +6685,41 @@
       <c r="B62" s="67"/>
       <c r="C62" s="52"/>
       <c r="D62" s="94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E62" s="94" t="s">
         <v>328</v>
       </c>
       <c r="F62" s="94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G62" s="94" t="s">
         <v>346</v>
       </c>
       <c r="H62" s="94"/>
       <c r="I62" s="94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J62" s="94"/>
       <c r="K62" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L62" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M62" s="94"/>
       <c r="N62" s="94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O62" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P62" s="94"/>
       <c r="Q62" s="94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R62" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S62" s="58"/>
       <c r="V62" s="69"/>
@@ -6758,31 +6756,31 @@
       </c>
       <c r="F64" s="89"/>
       <c r="G64" s="89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H64" s="89" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I64" s="89" t="s">
         <v>345</v>
       </c>
       <c r="J64" s="89"/>
       <c r="K64" s="89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L64" s="89"/>
       <c r="M64" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N64" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O64" s="89"/>
       <c r="P64" s="89" t="s">
         <v>348</v>
       </c>
       <c r="Q64" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R64" s="89"/>
       <c r="S64" s="53"/>
@@ -6849,35 +6847,35 @@
         <v>350</v>
       </c>
       <c r="E66" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F66" s="94"/>
       <c r="G66" s="94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H66" s="94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I66" s="94" t="s">
         <v>346</v>
       </c>
       <c r="J66" s="94"/>
       <c r="K66" s="94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L66" s="94"/>
       <c r="M66" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N66" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O66" s="94"/>
       <c r="P66" s="94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q66" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R66" s="94"/>
       <c r="S66" s="58"/>
@@ -6908,7 +6906,7 @@
       <c r="B68" s="65"/>
       <c r="C68" s="52"/>
       <c r="D68" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E68" s="89" t="s">
         <v>325</v>
@@ -6918,13 +6916,13 @@
       </c>
       <c r="G68" s="89"/>
       <c r="H68" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I68" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J68" s="89" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K68" s="89" t="s">
         <v>349</v>
@@ -6934,17 +6932,17 @@
       </c>
       <c r="M68" s="89"/>
       <c r="N68" s="89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O68" s="89" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P68" s="89" t="s">
         <v>345</v>
       </c>
       <c r="Q68" s="89"/>
       <c r="R68" s="89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="S68" s="53"/>
       <c r="V68" s="69"/>
@@ -7007,43 +7005,43 @@
       <c r="B70" s="67"/>
       <c r="C70" s="52"/>
       <c r="D70" s="94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E70" s="94" t="s">
         <v>326</v>
       </c>
       <c r="F70" s="94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G70" s="94"/>
       <c r="H70" s="94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I70" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J70" s="94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K70" s="94" t="s">
         <v>350</v>
       </c>
       <c r="L70" s="94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M70" s="94"/>
       <c r="N70" s="94" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O70" s="94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P70" s="94" t="s">
         <v>346</v>
       </c>
       <c r="Q70" s="94"/>
       <c r="R70" s="94" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="S70" s="58"/>
       <c r="V70" s="69"/>
@@ -7074,17 +7072,17 @@
       <c r="C72" s="52"/>
       <c r="D72" s="89"/>
       <c r="E72" s="89" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F72" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G72" s="89"/>
       <c r="H72" s="89" t="s">
         <v>348</v>
       </c>
       <c r="I72" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J72" s="89"/>
       <c r="K72" s="89" t="s">
@@ -7094,20 +7092,20 @@
         <v>342</v>
       </c>
       <c r="M72" s="89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N72" s="89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O72" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P72" s="89" t="s">
         <v>349</v>
       </c>
       <c r="Q72" s="89"/>
       <c r="R72" s="89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S72" s="53"/>
       <c r="V72" s="69"/>
@@ -7171,40 +7169,40 @@
       <c r="C74" s="52"/>
       <c r="D74" s="94"/>
       <c r="E74" s="94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F74" s="94" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G74" s="94"/>
       <c r="H74" s="94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I74" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J74" s="94"/>
       <c r="K74" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L74" s="94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M74" s="94" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N74" s="94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O74" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P74" s="94" t="s">
         <v>350</v>
       </c>
       <c r="Q74" s="94"/>
       <c r="R74" s="94" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S74" s="58"/>
       <c r="V74" s="69"/>
@@ -7234,13 +7232,13 @@
       <c r="B76" s="65"/>
       <c r="C76" s="52"/>
       <c r="D76" s="89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E76" s="89" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F76" s="89" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G76" s="89" t="s">
         <v>349</v>
@@ -7253,7 +7251,7 @@
         <v>307</v>
       </c>
       <c r="K76" s="89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L76" s="89" t="s">
         <v>342</v>
@@ -7263,10 +7261,10 @@
         <v>305</v>
       </c>
       <c r="O76" s="89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P76" s="89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q76" s="89" t="s">
         <v>308</v>
@@ -7333,13 +7331,13 @@
       <c r="B78" s="67"/>
       <c r="C78" s="52"/>
       <c r="D78" s="94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E78" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F78" s="94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G78" s="94" t="s">
         <v>350</v>
@@ -7349,23 +7347,23 @@
         <v>326</v>
       </c>
       <c r="J78" s="94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K78" s="94" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L78" s="94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M78" s="94"/>
       <c r="N78" s="94" t="s">
         <v>306</v>
       </c>
       <c r="O78" s="94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P78" s="94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q78" s="94" t="s">
         <v>309</v>
@@ -7399,20 +7397,20 @@
       <c r="B80" s="65"/>
       <c r="C80" s="52"/>
       <c r="D80" s="89" t="s">
+        <v>448</v>
+      </c>
+      <c r="E80" s="89" t="s">
+        <v>393</v>
+      </c>
+      <c r="F80" s="89" t="s">
+        <v>356</v>
+      </c>
+      <c r="G80" s="89" t="s">
         <v>450</v>
-      </c>
-      <c r="E80" s="89" t="s">
-        <v>395</v>
-      </c>
-      <c r="F80" s="89" t="s">
-        <v>358</v>
-      </c>
-      <c r="G80" s="89" t="s">
-        <v>452</v>
       </c>
       <c r="H80" s="89"/>
       <c r="I80" s="89" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J80" s="89" t="s">
         <v>345</v>
@@ -7431,10 +7429,10 @@
         <v>284</v>
       </c>
       <c r="P80" s="89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q80" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R80" s="89"/>
       <c r="S80" s="53"/>
@@ -7462,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="I81" s="102" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J81" s="95" t="s">
         <v>262</v>
@@ -7480,7 +7478,7 @@
         <v>171</v>
       </c>
       <c r="O81" s="102" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P81" s="95" t="s">
         <v>275</v>
@@ -7498,20 +7496,20 @@
       <c r="B82" s="67"/>
       <c r="C82" s="52"/>
       <c r="D82" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="E82" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="G82" s="94" t="s">
         <v>451</v>
-      </c>
-      <c r="E82" s="94" t="s">
-        <v>396</v>
-      </c>
-      <c r="F82" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="G82" s="94" t="s">
-        <v>453</v>
       </c>
       <c r="H82" s="94"/>
       <c r="I82" s="94" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J82" s="94" t="s">
         <v>346</v>
@@ -7530,10 +7528,10 @@
         <v>283</v>
       </c>
       <c r="P82" s="94" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q82" s="94" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R82" s="94"/>
       <c r="S82" s="58"/>
@@ -7568,23 +7566,23 @@
         <v>349</v>
       </c>
       <c r="E84" s="89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F84" s="89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G84" s="89" t="s">
         <v>285</v>
       </c>
       <c r="H84" s="89"/>
       <c r="I84" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J84" s="89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K84" s="89" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L84" s="89" t="s">
         <v>349</v>
@@ -7651,23 +7649,23 @@
         <v>350</v>
       </c>
       <c r="E86" s="94" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F86" s="94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G86" s="94" t="s">
         <v>286</v>
       </c>
       <c r="H86" s="94"/>
       <c r="I86" s="94" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J86" s="94" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K86" s="94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L86" s="94" t="s">
         <v>350</v>
